--- a/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B968F7-C030-48E6-AE33-9CEBB92E0987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04388074-93AE-4D07-ACA7-541C7FA7655A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9B7DB0B-0561-449B-BD6D-93CAFD7DED71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F45F1CAC-350B-4A35-A637-3B83CA325A46}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4F00F7-A3A9-4BE4-BE0B-85C97B6BBCEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF30A8B-D988-4432-84BF-219B43154880}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04388074-93AE-4D07-ACA7-541C7FA7655A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA7CD9E-C2BF-444B-83C2-2E2BA13A3680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F45F1CAC-350B-4A35-A637-3B83CA325A46}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05D6BA7B-6C9F-4885-8A86-62BA419005D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="342">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -83,961 +83,982 @@
     <t>0,34%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF30A8B-D988-4432-84BF-219B43154880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAE90D-2486-4500-9262-FE3249936EE2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1681,10 +1702,10 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -1693,13 +1714,13 @@
         <v>2114</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -1708,19 +1729,19 @@
         <v>6890</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1729,13 +1750,13 @@
         <v>9976</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -1744,13 +1765,13 @@
         <v>13579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -1759,19 +1780,19 @@
         <v>23555</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>310</v>
@@ -1780,13 +1801,13 @@
         <v>242542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -1795,13 +1816,13 @@
         <v>254287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>813</v>
@@ -1810,13 +1831,13 @@
         <v>496828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,13 +1852,13 @@
         <v>258381</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -1846,13 +1867,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -1861,18 +1882,18 @@
         <v>529783</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1884,13 +1905,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1899,13 +1920,13 @@
         <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1914,13 +1935,13 @@
         <v>2829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1950,13 +1971,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1965,13 +1986,13 @@
         <v>4029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +2007,13 @@
         <v>23185</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -2001,13 +2022,13 @@
         <v>18500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -2016,19 +2037,19 @@
         <v>41685</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>125</v>
@@ -2037,13 +2058,13 @@
         <v>171878</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -2052,13 +2073,13 @@
         <v>153628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
@@ -2067,19 +2088,19 @@
         <v>325506</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>236</v>
@@ -2088,13 +2109,13 @@
         <v>321702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -2103,13 +2124,13 @@
         <v>374889</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>710</v>
@@ -2118,13 +2139,13 @@
         <v>696591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2160,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
@@ -2154,13 +2175,13 @@
         <v>552412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -2169,18 +2190,18 @@
         <v>1070639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2192,13 +2213,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2207,13 +2228,13 @@
         <v>1282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2222,13 +2243,13 @@
         <v>3167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2258,13 +2279,13 @@
         <v>1372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2273,7 +2294,7 @@
         <v>1372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
@@ -2336,7 +2357,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>22</v>
@@ -2387,7 +2408,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>324</v>
@@ -2447,13 +2468,13 @@
         <v>320210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>533</v>
@@ -2462,13 +2483,13 @@
         <v>369621</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>891</v>
@@ -2477,13 +2498,13 @@
         <v>689830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2536,13 @@
         <v>431</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2605,10 +2626,10 @@
         <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2617,10 +2638,10 @@
         <v>6707</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>145</v>
@@ -2635,16 +2656,16 @@
         <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2659,7 +2680,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2671,10 +2692,10 @@
         <v>17</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2683,19 +2704,19 @@
         <v>3727</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>269</v>
@@ -2704,13 +2725,13 @@
         <v>299629</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>575</v>
@@ -2719,13 +2740,13 @@
         <v>414197</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>844</v>
@@ -2734,13 +2755,13 @@
         <v>713826</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2776,13 @@
         <v>311573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
@@ -2770,13 +2791,13 @@
         <v>424456</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
@@ -2785,18 +2806,18 @@
         <v>736029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2814,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2829,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2844,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,10 +2880,10 @@
         <v>4157</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>166</v>
@@ -2877,10 +2898,10 @@
         <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2889,13 +2910,13 @@
         <v>6551</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2931,7 @@
         <v>8385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>172</v>
@@ -2925,13 +2946,13 @@
         <v>3668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -2943,7 +2964,7 @@
         <v>114</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>177</v>
@@ -2952,7 +2973,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
@@ -3003,7 +3024,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -3063,13 +3084,13 @@
         <v>193865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -3078,13 +3099,13 @@
         <v>231044</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
@@ -3093,13 +3114,13 @@
         <v>424910</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3140,10 @@
         <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3131,13 +3152,13 @@
         <v>1169</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -3146,13 +3167,13 @@
         <v>7805</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3188,13 @@
         <v>4175</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3182,7 +3203,7 @@
         <v>863</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
@@ -3200,10 +3221,10 @@
         <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3239,13 @@
         <v>12625</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -3233,13 +3254,13 @@
         <v>7559</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -3248,19 +3269,19 @@
         <v>20184</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>48</v>
@@ -3269,13 +3290,13 @@
         <v>37626</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -3284,13 +3305,13 @@
         <v>29011</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
@@ -3299,19 +3320,19 @@
         <v>66637</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>297</v>
@@ -3320,13 +3341,13 @@
         <v>216161</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7">
         <v>393</v>
@@ -3335,13 +3356,13 @@
         <v>235410</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>690</v>
@@ -3350,13 +3371,13 @@
         <v>451571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3392,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -3386,13 +3407,13 @@
         <v>274012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
@@ -3401,18 +3422,18 @@
         <v>551235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3424,13 +3445,13 @@
         <v>2388</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3439,13 +3460,13 @@
         <v>5855</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -3457,10 +3478,10 @@
         <v>13</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3496,13 @@
         <v>6169</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3490,13 +3511,13 @@
         <v>4730</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
@@ -3505,13 +3526,13 @@
         <v>10899</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3547,13 @@
         <v>25254</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
@@ -3541,13 +3562,13 @@
         <v>24904</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
@@ -3556,19 +3577,19 @@
         <v>50158</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>143</v>
@@ -3577,13 +3598,13 @@
         <v>143148</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H43" s="7">
         <v>193</v>
@@ -3592,13 +3613,13 @@
         <v>128721</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M43" s="7">
         <v>336</v>
@@ -3607,19 +3628,19 @@
         <v>271869</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>415</v>
@@ -3628,13 +3649,13 @@
         <v>443314</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H44" s="7">
         <v>721</v>
@@ -3643,13 +3664,13 @@
         <v>636560</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M44" s="7">
         <v>1136</v>
@@ -3658,13 +3679,13 @@
         <v>1079873</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3700,13 @@
         <v>620273</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>956</v>
@@ -3694,13 +3715,13 @@
         <v>800770</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1547</v>
@@ -3709,18 +3730,18 @@
         <v>1421042</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3738,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3747,13 +3768,13 @@
         <v>696</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3762,13 +3783,13 @@
         <v>696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,10 +3804,10 @@
         <v>13004</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>275</v>
@@ -3798,13 +3819,13 @@
         <v>3962</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>276</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3813,13 +3834,13 @@
         <v>16965</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,13 +3855,13 @@
         <v>50541</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H48" s="7">
         <v>34</v>
@@ -3849,13 +3870,13 @@
         <v>26873</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="L48" s="7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="M48" s="7">
         <v>81</v>
@@ -3864,19 +3885,19 @@
         <v>77413</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>222</v>
@@ -3885,13 +3906,13 @@
         <v>244584</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H49" s="7">
         <v>274</v>
@@ -3900,13 +3921,13 @@
         <v>228562</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M49" s="7">
         <v>496</v>
@@ -3915,19 +3936,19 @@
         <v>473146</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>481</v>
@@ -3936,13 +3957,13 @@
         <v>551299</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H50" s="7">
         <v>747</v>
@@ -3951,13 +3972,13 @@
         <v>605580</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M50" s="7">
         <v>1228</v>
@@ -3966,13 +3987,13 @@
         <v>1156879</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4008,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4002,13 +4023,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
@@ -4017,13 +4038,13 @@
         <v>1725100</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4061,13 @@
         <v>12371</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -4055,7 +4076,7 @@
         <v>11712</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>16</v>
@@ -4073,10 +4094,10 @@
         <v>14</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4112,13 @@
         <v>28592</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="H53" s="7">
         <v>24</v>
@@ -4106,13 +4127,13 @@
         <v>17860</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="M53" s="7">
         <v>56</v>
@@ -4121,13 +4142,13 @@
         <v>46452</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4163,13 @@
         <v>145176</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H54" s="7">
         <v>144</v>
@@ -4157,13 +4178,13 @@
         <v>100866</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M54" s="7">
         <v>290</v>
@@ -4172,19 +4193,19 @@
         <v>246042</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>743</v>
@@ -4193,13 +4214,13 @@
         <v>745736</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H55" s="7">
         <v>1140</v>
@@ -4208,13 +4229,13 @@
         <v>743512</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M55" s="7">
         <v>1883</v>
@@ -4223,19 +4244,19 @@
         <v>1489248</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>2419</v>
@@ -4244,13 +4265,13 @@
         <v>2427304</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H56" s="7">
         <v>4017</v>
@@ -4259,13 +4280,13 @@
         <v>2915440</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M56" s="7">
         <v>6436</v>
@@ -4274,13 +4295,13 @@
         <v>5342744</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4316,13 @@
         <v>3359179</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5341</v>
@@ -4310,13 +4331,13 @@
         <v>3789390</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8691</v>
@@ -4325,18 +4346,18 @@
         <v>7148569</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA7CD9E-C2BF-444B-83C2-2E2BA13A3680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{502CB71D-F355-4857-9C14-3B5CA1D8A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05D6BA7B-6C9F-4885-8A86-62BA419005D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB6E6C9D-1688-497E-890C-7BA385F7E3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="335">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -98,13 +98,13 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -113,7 +113,7 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>1,07%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -122,10 +122,7 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>0,78%</t>
@@ -134,931 +131,913 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1473,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EAE90D-2486-4500-9262-FE3249936EE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1F7CB0-ED62-40C6-B185-1E6819D7C519}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1702,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -1714,13 +1693,13 @@
         <v>2114</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -1729,19 +1708,19 @@
         <v>6890</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1750,13 +1729,13 @@
         <v>9976</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -1765,13 +1744,13 @@
         <v>13579</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -1780,19 +1759,19 @@
         <v>23555</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>310</v>
@@ -1801,13 +1780,13 @@
         <v>242542</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -1816,13 +1795,13 @@
         <v>254287</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>813</v>
@@ -1831,13 +1810,13 @@
         <v>496828</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1831,13 @@
         <v>258381</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
@@ -1867,13 +1846,13 @@
         <v>271403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -1882,18 +1861,18 @@
         <v>529783</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1905,13 +1884,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1920,13 +1899,13 @@
         <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1935,13 +1914,13 @@
         <v>2829</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1971,13 +1950,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1986,13 +1965,13 @@
         <v>4029</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +1986,13 @@
         <v>23185</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -2022,13 +2001,13 @@
         <v>18500</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -2037,19 +2016,19 @@
         <v>41685</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>125</v>
@@ -2058,13 +2037,13 @@
         <v>171878</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -2073,13 +2052,13 @@
         <v>153628</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
@@ -2088,19 +2067,19 @@
         <v>325506</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>236</v>
@@ -2109,13 +2088,13 @@
         <v>321702</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -2124,13 +2103,13 @@
         <v>374889</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>710</v>
@@ -2139,13 +2118,13 @@
         <v>696591</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2139,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
@@ -2175,13 +2154,13 @@
         <v>552412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -2190,18 +2169,18 @@
         <v>1070639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2192,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2228,13 +2207,13 @@
         <v>1282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2243,13 +2222,13 @@
         <v>3167</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2279,13 +2258,13 @@
         <v>1372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -2294,7 +2273,7 @@
         <v>1372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
@@ -2357,7 +2336,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>22</v>
@@ -2408,7 +2387,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>324</v>
@@ -2468,13 +2447,13 @@
         <v>320210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>533</v>
@@ -2483,13 +2462,13 @@
         <v>369621</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>891</v>
@@ -2498,13 +2477,13 @@
         <v>689830</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2515,13 @@
         <v>431</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2626,10 +2605,10 @@
         <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2638,10 +2617,10 @@
         <v>6707</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>145</v>
@@ -2656,16 +2635,16 @@
         <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2680,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2692,10 +2671,10 @@
         <v>17</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2704,19 +2683,19 @@
         <v>3727</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>269</v>
@@ -2725,13 +2704,13 @@
         <v>299629</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>575</v>
@@ -2740,13 +2719,13 @@
         <v>414197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>844</v>
@@ -2755,13 +2734,13 @@
         <v>713826</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2755,13 @@
         <v>311573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
@@ -2791,13 +2770,13 @@
         <v>424456</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
@@ -2806,18 +2785,18 @@
         <v>736029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2835,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2850,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2865,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,10 +2859,10 @@
         <v>4157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>166</v>
@@ -2898,10 +2877,10 @@
         <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2910,13 +2889,13 @@
         <v>6551</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,7 +2910,7 @@
         <v>8385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>172</v>
@@ -2946,13 +2925,13 @@
         <v>3668</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -2964,7 +2943,7 @@
         <v>114</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>177</v>
@@ -2973,7 +2952,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
@@ -3024,7 +3003,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -3084,13 +3063,13 @@
         <v>193865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -3099,13 +3078,13 @@
         <v>231044</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
@@ -3114,13 +3093,13 @@
         <v>424910</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,10 +3119,10 @@
         <v>197</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3152,13 +3131,13 @@
         <v>1169</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -3167,13 +3146,13 @@
         <v>7805</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3167,13 @@
         <v>4175</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -3203,7 +3182,7 @@
         <v>863</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
@@ -3221,10 +3200,10 @@
         <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3218,13 @@
         <v>12625</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
@@ -3254,13 +3233,13 @@
         <v>7559</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -3269,19 +3248,19 @@
         <v>20184</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>48</v>
@@ -3290,13 +3269,13 @@
         <v>37626</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -3305,13 +3284,13 @@
         <v>29011</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
@@ -3320,19 +3299,19 @@
         <v>66637</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>297</v>
@@ -3341,13 +3320,13 @@
         <v>216161</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H38" s="7">
         <v>393</v>
@@ -3356,13 +3335,13 @@
         <v>235410</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M38" s="7">
         <v>690</v>
@@ -3371,13 +3350,13 @@
         <v>451571</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3371,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -3407,13 +3386,13 @@
         <v>274012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
@@ -3422,18 +3401,18 @@
         <v>551235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3445,13 +3424,13 @@
         <v>2388</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3460,13 +3439,13 @@
         <v>5855</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -3478,10 +3457,10 @@
         <v>13</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3475,13 @@
         <v>6169</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
@@ -3511,13 +3490,13 @@
         <v>4730</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
@@ -3526,13 +3505,13 @@
         <v>10899</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3526,13 @@
         <v>25254</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
@@ -3562,13 +3541,13 @@
         <v>24904</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
@@ -3577,19 +3556,19 @@
         <v>50158</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>143</v>
@@ -3598,13 +3577,13 @@
         <v>143148</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H43" s="7">
         <v>193</v>
@@ -3613,13 +3592,13 @@
         <v>128721</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M43" s="7">
         <v>336</v>
@@ -3628,19 +3607,19 @@
         <v>271869</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>415</v>
@@ -3649,13 +3628,13 @@
         <v>443314</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H44" s="7">
         <v>721</v>
@@ -3664,13 +3643,13 @@
         <v>636560</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M44" s="7">
         <v>1136</v>
@@ -3679,13 +3658,13 @@
         <v>1079873</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3679,13 @@
         <v>620273</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>956</v>
@@ -3715,13 +3694,13 @@
         <v>800770</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>1547</v>
@@ -3730,18 +3709,18 @@
         <v>1421042</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3759,7 +3738,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3768,13 +3747,13 @@
         <v>696</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3783,13 +3762,13 @@
         <v>696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,10 +3783,10 @@
         <v>13004</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>275</v>
@@ -3819,13 +3798,13 @@
         <v>3962</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>276</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3834,13 +3813,13 @@
         <v>16965</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3834,13 @@
         <v>50541</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H48" s="7">
         <v>34</v>
@@ -3870,13 +3849,13 @@
         <v>26873</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="M48" s="7">
         <v>81</v>
@@ -3885,19 +3864,19 @@
         <v>77413</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>222</v>
@@ -3906,13 +3885,13 @@
         <v>244584</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H49" s="7">
         <v>274</v>
@@ -3921,13 +3900,13 @@
         <v>228562</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M49" s="7">
         <v>496</v>
@@ -3936,19 +3915,19 @@
         <v>473146</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>481</v>
@@ -3957,13 +3936,13 @@
         <v>551299</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H50" s="7">
         <v>747</v>
@@ -3972,13 +3951,13 @@
         <v>605580</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M50" s="7">
         <v>1228</v>
@@ -3987,13 +3966,13 @@
         <v>1156879</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3987,13 @@
         <v>859428</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4023,13 +4002,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
@@ -4038,13 +4017,13 @@
         <v>1725100</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4040,13 @@
         <v>12371</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -4076,7 +4055,7 @@
         <v>11712</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>16</v>
@@ -4094,10 +4073,10 @@
         <v>14</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4091,13 @@
         <v>28592</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="H53" s="7">
         <v>24</v>
@@ -4127,13 +4106,13 @@
         <v>17860</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="M53" s="7">
         <v>56</v>
@@ -4142,13 +4121,13 @@
         <v>46452</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4142,13 @@
         <v>145176</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H54" s="7">
         <v>144</v>
@@ -4178,13 +4157,13 @@
         <v>100866</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M54" s="7">
         <v>290</v>
@@ -4193,19 +4172,19 @@
         <v>246042</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>322</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>743</v>
@@ -4214,13 +4193,13 @@
         <v>745736</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="H55" s="7">
         <v>1140</v>
@@ -4229,13 +4208,13 @@
         <v>743512</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M55" s="7">
         <v>1883</v>
@@ -4244,19 +4223,19 @@
         <v>1489248</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="7">
         <v>2419</v>
@@ -4265,13 +4244,13 @@
         <v>2427304</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H56" s="7">
         <v>4017</v>
@@ -4280,13 +4259,13 @@
         <v>2915440</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M56" s="7">
         <v>6436</v>
@@ -4295,13 +4274,13 @@
         <v>5342744</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4295,13 @@
         <v>3359179</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="7">
         <v>5341</v>
@@ -4331,13 +4310,13 @@
         <v>3789390</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57" s="7">
         <v>8691</v>
@@ -4346,18 +4325,18 @@
         <v>7148569</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502CB71D-F355-4857-9C14-3B5CA1D8A31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E2CEEE-6FD4-4E93-A98D-4AB9985E8DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BB6E6C9D-1688-497E-890C-7BA385F7E3EB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9D5209CC-CB09-4217-9DE7-3617413FDDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="333">
   <si>
     <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023 (Tasa respuesta: 99,41%)</t>
   </si>
@@ -80,964 +80,958 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1F7CB0-ED62-40C6-B185-1E6819D7C519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD591760-86B9-4902-BD4A-10B0333B327F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1588,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1603,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1624,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1087</v>
+        <v>1290</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1639,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1654,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1599</v>
+        <v>1810</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1675,148 +1669,148 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>4776</v>
+        <v>5652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>2114</v>
+        <v>2166</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>6890</v>
+        <v>7818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>9976</v>
+        <v>11500</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>13579</v>
+        <v>14241</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>23555</v>
+        <v>25741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>310</v>
       </c>
       <c r="D8" s="7">
-        <v>242542</v>
+        <v>290719</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
       </c>
       <c r="I8" s="7">
-        <v>254287</v>
+        <v>271789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>813</v>
       </c>
       <c r="N8" s="7">
-        <v>496828</v>
+        <v>562508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,51 +1822,51 @@
         <v>329</v>
       </c>
       <c r="D9" s="7">
-        <v>258381</v>
+        <v>309160</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>538</v>
       </c>
       <c r="I9" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
       </c>
       <c r="N9" s="7">
-        <v>529783</v>
+        <v>598795</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1881,46 +1875,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1367</v>
+        <v>1283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2829</v>
+        <v>2778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,37 +1935,37 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>4029</v>
+        <v>3842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4029</v>
+        <v>3842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,148 +1977,148 @@
         <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>23185</v>
+        <v>22535</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>18500</v>
+        <v>17157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>41685</v>
+        <v>39692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>171878</v>
+        <v>171371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
       </c>
       <c r="I13" s="7">
-        <v>153628</v>
+        <v>142937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
       </c>
       <c r="N13" s="7">
-        <v>325506</v>
+        <v>314308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>321702</v>
+        <v>321991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
       </c>
       <c r="I14" s="7">
-        <v>374889</v>
+        <v>347787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>710</v>
       </c>
       <c r="N14" s="7">
-        <v>696591</v>
+        <v>669778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,51 +2130,51 @@
         <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
       </c>
       <c r="I15" s="7">
-        <v>552412</v>
+        <v>513006</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
       </c>
       <c r="N15" s="7">
-        <v>1070639</v>
+        <v>1030399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2189,46 +2183,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1282</v>
+        <v>1199</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3167</v>
+        <v>3073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,16 +2243,16 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1372</v>
+        <v>1268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -2270,16 +2264,16 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1372</v>
+        <v>1268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,148 +2285,148 @@
         <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>9073</v>
+        <v>8897</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>10540</v>
+        <v>9847</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>19614</v>
+        <v>18744</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>22274</v>
+        <v>22254</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>16066</v>
+        <v>14703</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
       </c>
       <c r="N19" s="7">
-        <v>38340</v>
+        <v>36957</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>324</v>
       </c>
       <c r="D20" s="7">
-        <v>286978</v>
+        <v>281069</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>490</v>
       </c>
       <c r="I20" s="7">
-        <v>340361</v>
+        <v>318325</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>814</v>
       </c>
       <c r="N20" s="7">
-        <v>627337</v>
+        <v>599394</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,51 +2438,51 @@
         <v>358</v>
       </c>
       <c r="D21" s="7">
-        <v>320210</v>
+        <v>314094</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>533</v>
       </c>
       <c r="I21" s="7">
-        <v>369621</v>
+        <v>345342</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>891</v>
       </c>
       <c r="N21" s="7">
-        <v>689830</v>
+        <v>659436</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2506,37 +2500,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2572,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2587,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,148 +2593,148 @@
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>11338</v>
+        <v>9686</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>6707</v>
+        <v>6629</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>18045</v>
+        <v>16314</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>3121</v>
+        <v>2952</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>3727</v>
+        <v>3533</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>269</v>
       </c>
       <c r="D26" s="7">
-        <v>299629</v>
+        <v>292124</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>575</v>
       </c>
       <c r="I26" s="7">
-        <v>414197</v>
+        <v>461855</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>844</v>
       </c>
       <c r="N26" s="7">
-        <v>713826</v>
+        <v>753980</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,51 +2746,51 @@
         <v>281</v>
       </c>
       <c r="D27" s="7">
-        <v>311573</v>
+        <v>302391</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
       </c>
       <c r="I27" s="7">
-        <v>424456</v>
+        <v>471840</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
       </c>
       <c r="N27" s="7">
-        <v>736029</v>
+        <v>774232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2814,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2829,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2844,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,46 +2850,46 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>4157</v>
+        <v>3794</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>2393</v>
+        <v>2084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>6551</v>
+        <v>5878</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,148 +2901,148 @@
         <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>8385</v>
+        <v>7560</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>3668</v>
+        <v>3312</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
       </c>
       <c r="N30" s="7">
-        <v>12053</v>
+        <v>10872</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
       </c>
       <c r="D31" s="7">
-        <v>115643</v>
+        <v>105561</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
       </c>
       <c r="I31" s="7">
-        <v>170825</v>
+        <v>153675</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
       </c>
       <c r="N31" s="7">
-        <v>286468</v>
+        <v>259236</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
       </c>
       <c r="D32" s="7">
-        <v>65680</v>
+        <v>59374</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
       </c>
       <c r="I32" s="7">
-        <v>54158</v>
+        <v>48790</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>201</v>
       </c>
       <c r="N32" s="7">
-        <v>119838</v>
+        <v>108164</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,51 +3054,51 @@
         <v>277</v>
       </c>
       <c r="D33" s="7">
-        <v>193865</v>
+        <v>176288</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
       </c>
       <c r="I33" s="7">
-        <v>231044</v>
+        <v>207862</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
       </c>
       <c r="N33" s="7">
-        <v>424910</v>
+        <v>384150</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3113,46 +3107,46 @@
         <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>6635</v>
+        <v>6503</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
       </c>
       <c r="I34" s="7">
-        <v>1169</v>
+        <v>1083</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
       </c>
       <c r="N34" s="7">
-        <v>7805</v>
+        <v>7586</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,46 +3158,46 @@
         <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>4175</v>
+        <v>4112</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>863</v>
+        <v>800</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
       </c>
       <c r="N35" s="7">
-        <v>5038</v>
+        <v>4913</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,148 +3209,148 @@
         <v>16</v>
       </c>
       <c r="D36" s="7">
-        <v>12625</v>
+        <v>12307</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>13</v>
       </c>
       <c r="I36" s="7">
-        <v>7559</v>
+        <v>7225</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
       </c>
       <c r="N36" s="7">
-        <v>20184</v>
+        <v>19532</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>48</v>
       </c>
       <c r="D37" s="7">
-        <v>37626</v>
+        <v>37022</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
       </c>
       <c r="I37" s="7">
-        <v>29011</v>
+        <v>27232</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
       </c>
       <c r="N37" s="7">
-        <v>66637</v>
+        <v>64254</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>297</v>
       </c>
       <c r="D38" s="7">
-        <v>216161</v>
+        <v>209692</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H38" s="7">
         <v>393</v>
       </c>
       <c r="I38" s="7">
-        <v>235410</v>
+        <v>219239</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M38" s="7">
         <v>690</v>
       </c>
       <c r="N38" s="7">
-        <v>451571</v>
+        <v>428931</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,51 +3362,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
       </c>
       <c r="I39" s="7">
-        <v>274012</v>
+        <v>255579</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
       </c>
       <c r="N39" s="7">
-        <v>551235</v>
+        <v>525215</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3421,46 +3415,46 @@
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>2388</v>
+        <v>2458</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
       </c>
       <c r="I40" s="7">
-        <v>5855</v>
+        <v>5481</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
       </c>
       <c r="N40" s="7">
-        <v>8243</v>
+        <v>7939</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,46 +3466,46 @@
         <v>7</v>
       </c>
       <c r="D41" s="7">
-        <v>6169</v>
+        <v>5983</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H41" s="7">
         <v>5</v>
       </c>
       <c r="I41" s="7">
-        <v>4730</v>
+        <v>4437</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
       </c>
       <c r="N41" s="7">
-        <v>10899</v>
+        <v>10420</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,148 +3517,148 @@
         <v>24</v>
       </c>
       <c r="D42" s="7">
-        <v>25254</v>
+        <v>24936</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
       </c>
       <c r="I42" s="7">
-        <v>24904</v>
+        <v>23309</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
       </c>
       <c r="N42" s="7">
-        <v>50158</v>
+        <v>48245</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>143</v>
       </c>
       <c r="D43" s="7">
-        <v>143148</v>
+        <v>141282</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H43" s="7">
         <v>193</v>
       </c>
       <c r="I43" s="7">
-        <v>128721</v>
+        <v>120081</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
         <v>336</v>
       </c>
       <c r="N43" s="7">
-        <v>271869</v>
+        <v>261363</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>415</v>
       </c>
       <c r="D44" s="7">
-        <v>443314</v>
+        <v>442235</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H44" s="7">
         <v>721</v>
       </c>
       <c r="I44" s="7">
-        <v>636560</v>
+        <v>693005</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M44" s="7">
         <v>1136</v>
       </c>
       <c r="N44" s="7">
-        <v>1079873</v>
+        <v>1135241</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,51 +3670,51 @@
         <v>591</v>
       </c>
       <c r="D45" s="7">
-        <v>620273</v>
+        <v>616894</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>956</v>
       </c>
       <c r="I45" s="7">
-        <v>800770</v>
+        <v>846313</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1547</v>
       </c>
       <c r="N45" s="7">
-        <v>1421042</v>
+        <v>1463208</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3738,37 +3732,37 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,46 +3774,46 @@
         <v>12</v>
       </c>
       <c r="D47" s="7">
-        <v>13004</v>
+        <v>10950</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
       </c>
       <c r="I47" s="7">
-        <v>3962</v>
+        <v>3250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
       </c>
       <c r="N47" s="7">
-        <v>16965</v>
+        <v>14200</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,148 +3825,148 @@
         <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>50541</v>
+        <v>42305</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H48" s="7">
         <v>34</v>
       </c>
       <c r="I48" s="7">
-        <v>26873</v>
+        <v>22388</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M48" s="7">
         <v>81</v>
       </c>
       <c r="N48" s="7">
-        <v>77413</v>
+        <v>64693</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>222</v>
       </c>
       <c r="D49" s="7">
-        <v>244584</v>
+        <v>206466</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="H49" s="7">
         <v>274</v>
       </c>
       <c r="I49" s="7">
-        <v>228562</v>
+        <v>188164</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M49" s="7">
         <v>496</v>
       </c>
       <c r="N49" s="7">
-        <v>473146</v>
+        <v>394630</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>481</v>
       </c>
       <c r="D50" s="7">
-        <v>551299</v>
+        <v>668999</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H50" s="7">
         <v>747</v>
       </c>
       <c r="I50" s="7">
-        <v>605580</v>
+        <v>500995</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M50" s="7">
         <v>1228</v>
       </c>
       <c r="N50" s="7">
-        <v>1156879</v>
+        <v>1169994</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,46 +3978,46 @@
         <v>762</v>
       </c>
       <c r="D51" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1823</v>
       </c>
       <c r="N51" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,46 +4031,46 @@
         <v>10</v>
       </c>
       <c r="D52" s="7">
-        <v>12371</v>
+        <v>12330</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
       </c>
       <c r="I52" s="7">
-        <v>11712</v>
+        <v>10964</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M52" s="7">
         <v>26</v>
       </c>
       <c r="N52" s="7">
-        <v>24083</v>
+        <v>23294</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,43 +4082,43 @@
         <v>32</v>
       </c>
       <c r="D53" s="7">
-        <v>28592</v>
+        <v>26129</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="H53" s="7">
         <v>24</v>
       </c>
       <c r="I53" s="7">
-        <v>17860</v>
+        <v>16202</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="M53" s="7">
         <v>56</v>
       </c>
       <c r="N53" s="7">
-        <v>46452</v>
+        <v>42331</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>22</v>
@@ -4139,148 +4133,148 @@
         <v>146</v>
       </c>
       <c r="D54" s="7">
-        <v>145176</v>
+        <v>133877</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H54" s="7">
         <v>144</v>
       </c>
       <c r="I54" s="7">
-        <v>100866</v>
+        <v>92033</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>98</v>
+        <v>310</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="M54" s="7">
         <v>290</v>
       </c>
       <c r="N54" s="7">
-        <v>246042</v>
+        <v>225909</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>743</v>
       </c>
       <c r="D55" s="7">
-        <v>745736</v>
+        <v>696038</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H55" s="7">
         <v>1140</v>
       </c>
       <c r="I55" s="7">
-        <v>743512</v>
+        <v>663984</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M55" s="7">
         <v>1883</v>
       </c>
       <c r="N55" s="7">
-        <v>1489248</v>
+        <v>1360022</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>2419</v>
       </c>
       <c r="D56" s="7">
-        <v>2427304</v>
+        <v>2566204</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H56" s="7">
         <v>4017</v>
       </c>
       <c r="I56" s="7">
-        <v>2915440</v>
+        <v>2861786</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M56" s="7">
         <v>6436</v>
       </c>
       <c r="N56" s="7">
-        <v>5342744</v>
+        <v>5427989</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,51 +4286,51 @@
         <v>3350</v>
       </c>
       <c r="D57" s="7">
-        <v>3359179</v>
+        <v>3434578</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5341</v>
       </c>
       <c r="I57" s="7">
-        <v>3789390</v>
+        <v>3644969</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8691</v>
       </c>
       <c r="N57" s="7">
-        <v>7148569</v>
+        <v>7079546</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la creencia de si es importante o no vacunar a los niños/as en 2023</t>
+          <t>Población según la creencia de si es importante vacunar a los niños/as en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
